--- a/5/6/Stock de instrumentos de deuda del BCCh en circulación 1995 a 2021 - Trimestral.xlsx
+++ b/5/6/Stock de instrumentos de deuda del BCCh en circulación 1995 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Serie</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -731,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3633,6 +3636,26 @@
         <v>21</v>
       </c>
     </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108">
+        <v>42614000</v>
+      </c>
+      <c r="C108">
+        <v>167600</v>
+      </c>
+      <c r="E108">
+        <v>13050</v>
+      </c>
+      <c r="F108">
+        <v>79</v>
+      </c>
+      <c r="G108">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/Stock de instrumentos de deuda del BCCh en circulación 1995 a 2021 - Trimestral.xlsx
+++ b/5/6/Stock de instrumentos de deuda del BCCh en circulación 1995 a 2021 - Trimestral.xlsx
@@ -3641,7 +3641,7 @@
         <v>120</v>
       </c>
       <c r="B108">
-        <v>42614000</v>
+        <v>38808000</v>
       </c>
       <c r="C108">
         <v>167600</v>
